--- a/free_recall_SHINY/Test Data RGN/lrd paper Analysis/Huff et al Key.xlsx
+++ b/free_recall_SHINY/Test Data RGN/lrd paper Analysis/Huff et al Key.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nickm.000\Documents\GitHub\lrd\free_recall_SHINY\Test Data RGN\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nickm.000\Documents\GitHub\lrd\free_recall_SHINY\Test Data RGN\lrd paper Analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6F75B59-3F38-4B71-A23A-09283C3E2694}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEAE15FC-2E2D-48BC-A21B-B4EC29B539B5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11280" activeTab="3" xr2:uid="{0C69F891-69EB-4909-88C8-1D79C299BE10}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11280" activeTab="5" xr2:uid="{0C69F891-69EB-4909-88C8-1D79C299BE10}"/>
   </bookViews>
   <sheets>
     <sheet name="Version A" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="753" uniqueCount="251">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="756" uniqueCount="251">
   <si>
     <t>NUTMEG</t>
   </si>
@@ -1144,7 +1144,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DC29764-7A87-425E-93DB-BB69BC9DA1AC}">
   <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
@@ -1579,8 +1579,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73B7BA29-CCA9-4354-943B-C2CB23D4D86D}">
   <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1607,7 +1607,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>126</v>
+        <v>248</v>
       </c>
       <c r="B2" t="s">
         <v>145</v>
@@ -1627,7 +1627,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="B3" t="s">
         <v>146</v>
@@ -1647,7 +1647,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B4" t="s">
         <v>147</v>
@@ -1667,7 +1667,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>129</v>
+        <v>143</v>
       </c>
       <c r="B5" t="s">
         <v>148</v>
@@ -1687,7 +1687,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B6" t="s">
         <v>149</v>
@@ -1707,7 +1707,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>131</v>
+        <v>142</v>
       </c>
       <c r="B7" t="s">
         <v>150</v>
@@ -1727,7 +1727,7 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>132</v>
+        <v>249</v>
       </c>
       <c r="B8" t="s">
         <v>151</v>
@@ -1747,7 +1747,7 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="B9" t="s">
         <v>152</v>
@@ -1767,7 +1767,7 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B10" t="s">
         <v>153</v>
@@ -1787,7 +1787,7 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="B11" t="s">
         <v>154</v>
@@ -1807,7 +1807,7 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B12" t="s">
         <v>155</v>
@@ -1827,7 +1827,7 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B13" t="s">
         <v>156</v>
@@ -1847,7 +1847,7 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="B14" t="s">
         <v>157</v>
@@ -1867,7 +1867,7 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B15" t="s">
         <v>158</v>
@@ -1887,7 +1887,7 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="B16" t="s">
         <v>159</v>
@@ -1907,7 +1907,7 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>141</v>
+        <v>126</v>
       </c>
       <c r="B17" t="s">
         <v>160</v>
@@ -1927,7 +1927,7 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="B18" t="s">
         <v>161</v>
@@ -1947,7 +1947,7 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>143</v>
+        <v>130</v>
       </c>
       <c r="B19" t="s">
         <v>162</v>
@@ -1966,6 +1966,9 @@
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>135</v>
+      </c>
       <c r="B20" t="s">
         <v>163</v>
       </c>
@@ -1983,6 +1986,9 @@
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>129</v>
+      </c>
       <c r="B21" t="s">
         <v>164</v>
       </c>
@@ -2443,8 +2449,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6F7C19F-B2C2-4317-BAF7-05920E979132}">
   <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A21" sqref="A2:A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2878,7 +2884,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB609F0A-F366-4053-BC67-AA8074D5C9B5}">
   <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="G8" sqref="G8:G9"/>
     </sheetView>
   </sheetViews>
@@ -3313,8 +3319,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB9DB326-D015-4925-8A13-775CCA609628}">
   <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3341,7 +3347,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>129</v>
+        <v>248</v>
       </c>
       <c r="B2" t="s">
         <v>152</v>
@@ -3361,7 +3367,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="B3" t="s">
         <v>164</v>
@@ -3381,7 +3387,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>248</v>
+        <v>127</v>
       </c>
       <c r="B4" t="s">
         <v>151</v>
@@ -3401,7 +3407,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B5" t="s">
         <v>162</v>
@@ -3421,7 +3427,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="B6" t="s">
         <v>155</v>
@@ -3441,7 +3447,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>130</v>
+        <v>142</v>
       </c>
       <c r="B7" t="s">
         <v>153</v>
@@ -3461,7 +3467,7 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>136</v>
+        <v>249</v>
       </c>
       <c r="B8" t="s">
         <v>160</v>
@@ -3481,7 +3487,7 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="B9" t="s">
         <v>161</v>
@@ -3501,7 +3507,7 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B10" t="s">
         <v>156</v>
@@ -3521,7 +3527,7 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>249</v>
+        <v>128</v>
       </c>
       <c r="B11" t="s">
         <v>149</v>
@@ -3561,7 +3567,7 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B13" t="s">
         <v>150</v>
@@ -3581,7 +3587,7 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="B14" t="s">
         <v>146</v>
@@ -3601,7 +3607,7 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B15" t="s">
         <v>154</v>
@@ -3621,7 +3627,7 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="B16" t="s">
         <v>148</v>
@@ -3641,7 +3647,7 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B17" t="s">
         <v>147</v>
@@ -3661,7 +3667,7 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="B18" t="s">
         <v>163</v>
@@ -3681,7 +3687,7 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>143</v>
+        <v>130</v>
       </c>
       <c r="B19" t="s">
         <v>158</v>
@@ -3701,7 +3707,7 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="B20" t="s">
         <v>145</v>
@@ -3720,6 +3726,9 @@
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>129</v>
+      </c>
       <c r="B21" t="s">
         <v>159</v>
       </c>
